--- a/Recycling/Met_rec/metrec_Min_target_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Min_target_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>30391.99057451257</v>
+        <v>30391.99057451256</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>50021.98131592009</v>
+        <v>50021.9813159201</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>57877.16490272012</v>
+        <v>57877.16490272013</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>84055.74857747871</v>
+        <v>84055.74857747872</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>455285.6495998814</v>
+        <v>455285.6495998815</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>907293.3796566342</v>
+        <v>907293.3796566341</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1771147.898692238</v>
+        <v>1771147.898692237</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1847140.799864978</v>
+        <v>1847140.799864977</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6735,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1876913.11997753</v>
+        <v>1876913.119977531</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_target_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Min_target_Avg.xlsx
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9417624.546104088</v>
+        <v>9417624.54610409</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7995459.266291357</v>
+        <v>7995459.266291359</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5146.525684131254</v>
+        <v>5146.525684131253</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>33551.03683707345</v>
+        <v>33551.03683707346</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3804,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>34665.17631858316</v>
+        <v>34665.17631858315</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>32592.15264212761</v>
+        <v>32592.1526421276</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>465609.661213606</v>
+        <v>465609.6612136061</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6588,7 +6588,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>710011.8955017902</v>
+        <v>710011.8955017903</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6748,7 +6748,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3231148.916244147</v>
+        <v>3231148.916244146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1000812.121355398</v>
+        <v>1000812.121355397</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6864,7 +6864,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3013612.476197135</v>
+        <v>3013612.476197134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1674502.65600816</v>
+        <v>1674502.656008159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7272,7 +7272,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4748422.101009846</v>
+        <v>4748422.101009847</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8700,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7819190.546855077</v>
+        <v>7819190.546855078</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>13950629.72972634</v>
+        <v>13950629.72972633</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9852,7 +9852,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3384437.22390474</v>
+        <v>3384437.223904739</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4490033.501144768</v>
+        <v>4490033.501144767</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3330371.903885526</v>
+        <v>3330371.903885525</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10784,7 +10784,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4441736.150739573</v>
+        <v>4441736.150739572</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4339805.740714798</v>
+        <v>4339805.740714799</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3836497.696746686</v>
+        <v>3836497.696746687</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13392,7 +13392,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8821126.653547313</v>
+        <v>8821126.653547311</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14296,7 +14296,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>27017307.94929405</v>
+        <v>27017307.94929406</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14456,7 +14456,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>45.4736658754303</v>
+        <v>45.47366587543031</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14660,7 +14660,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5817617.62794068</v>
+        <v>5817617.627940682</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4117897.23577887</v>
+        <v>4117897.235778871</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>31437900.08584061</v>
+        <v>31437900.08584062</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5711310.763315083</v>
+        <v>5711310.763315082</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15972,7 +15972,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4152514.501478253</v>
+        <v>4152514.501478254</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16292,7 +16292,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6094345.140192427</v>
+        <v>6094345.140192429</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16584,7 +16584,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4677221.997721442</v>
+        <v>4677221.997721441</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18216,7 +18216,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5146894.528555958</v>
+        <v>5146894.528555957</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18988,7 +18988,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>515.8867279610083</v>
+        <v>515.8867279610084</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19308,7 +19308,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8751563.169417506</v>
+        <v>8751563.169417504</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19440,7 +19440,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4789908.352255628</v>
+        <v>4789908.352255627</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19716,7 +19716,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8886084.124430884</v>
+        <v>8886084.124430882</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19848,7 +19848,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4917568.59598938</v>
+        <v>4917568.595989379</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20256,7 +20256,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5186668.915834794</v>
+        <v>5186668.915834795</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20372,7 +20372,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7417819.175973802</v>
+        <v>7417819.175973801</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>49214302.27610956</v>
+        <v>49214302.27610955</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7805977.00820714</v>
+        <v>7805977.008207139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
